--- a/src/main/resources/static/excel/批量导入试题.xlsx
+++ b/src/main/resources/static/excel/批量导入试题.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onlinetest_v1\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1"/>
@@ -540,6 +540,7 @@
       <c r="I4" s="4"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -549,7 +550,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
-      <formula1>"1,2,3"</formula1>
+      <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"1,2,3,4,5,6"</formula1>
